--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\csv-to-h5p-iv\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67888E-F898-4DFE-A7D2-F1A92F78782C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A0F9A-6970-4FD2-9CBE-20580C09493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,8 +778,8 @@
   <dimension ref="A1:AA63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1247,12 +1247,13 @@
       <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="12" t="s">
         <v>69</v>
       </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2324,7 +2325,7 @@
       <formula>OR($C5="Drag and Drop", $C5="Text")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid content type name" promptTitle="Pick the content type" prompt="Please select the content type from the list" sqref="C5:C59" xr:uid="{C4566423-F964-324F-A089-9D454D95CEA5}">
       <formula1>"Drag Text, Single Choice, True False, Fill in the Blanks, Drag and Drop, Free Text, Multiple Choice, Text"</formula1>
     </dataValidation>
@@ -2334,11 +2335,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="fully optional_x000a__x000a_Enter a text that is shown when the learner's answer was incorrect. You can also optionally jump to a timecode._x000a__x000a_Allowed format:_x000a_Try again!_x000a_Watch this part of the video again! (0:19)_x000a_Watch this part of the video again! (0:19.500)_x000a_Watch thi" sqref="F5:F59" xr:uid="{7061524B-886A-D845-A9A2-9B9E58DE21AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer options" prompt="Single Choice Set: the first option is the correct one (order randomized for learner)_x000a_Multiple Choice: put * (asteriks) in front of correct option_x000a_Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False:" sqref="V59" xr:uid="{427EA3ED-A53B-4740-BC3D-7FB637C3E431}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer options" prompt="Single Choice Set: first option is the correct one_x000a_Multiple Choice: put * (asteriks) in front of correct option_x000a_Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)" sqref="U59 J59:T59 I59" xr:uid="{1DF60308-4C5E-654F-BAF0-4A0F2B61BE22}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task / Question" prompt="Free Text: placeholder_x000a_Drag Text / Fill in the Blanks: Put * (asteriks) signs around the blanks or dragable text. (i.e. *Beijing* is the capital of China.)_x000a_Single Choice: options (1 / line, 1st = correct)_x000a_Multiple Choice: options 1 / line, * = correct" sqref="H5:H59" xr:uid="{66AD9054-C02E-034F-8E50-F16FC1758BF3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task / Question" prompt="Free Text: placeholder_x000a_Drag Text / Fill in the Blanks: Put * (asteriks) signs around the blanks or dragable text. (i.e. *Beijing* is the capital of China.)_x000a_Single Choice: options (1 / line, 1st = correct)_x000a_Multiple Choice: options 1 / line, * = correct" sqref="H59 H5:H58" xr:uid="{66AD9054-C02E-034F-8E50-F16FC1758BF3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Enter the title of the question. It will not be directly shown to the learner but is only used in the overview at the end." sqref="D5:D12 D15:D59" xr:uid="{696E855F-9008-DA40-9EB6-825EF86D9F65}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)" sqref="AV5:BE58" xr:uid="{2855567F-191F-494B-A78A-AAC39C8BF9FF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: see documentation_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)_x000a_Single Choice: iterate between question and answer list" sqref="I5:AU58" xr:uid="{07271C29-52DD-483E-BC1F-42CCB99A467D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: see documentation_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)_x000a_Single Choice: iterate between question and answer list" sqref="J5:AU58" xr:uid="{07271C29-52DD-483E-BC1F-42CCB99A467D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task description" prompt="Enter what the learner should do. This is displayed at the very top of the task._x000a__x000a_Text / Blanks / Drag Text:_x000a_create links like this: [link text](url)" sqref="G5:G13 G15:G59 H14" xr:uid="{4677DC35-5F9F-154A-9135-0382A0EF1CF7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: see documentation_x000a_Single Choice: iterate between question and answer list" sqref="I5:I58" xr:uid="{6B96B0D0-48CB-40F7-AA29-D0A1A2357C7C}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7E8B6A00-D004-4322-ADC6-F616412AF6A4}"/>

--- a/server/template.xlsx
+++ b/server/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\csv-to-h5p-iv\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A0F9A-6970-4FD2-9CBE-20580C09493E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA115FA-494A-4598-9D31-68ECA15E5F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Title:</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Drag and Drop Title</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,17 @@
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -777,9 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -1041,6 +1054,9 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
@@ -1090,6 +1106,9 @@
       </c>
       <c r="C10" t="s">
         <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2321,8 +2340,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D5:D52">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($C5="Drag and Drop", $C5="Text")</formula>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR($C5="Text")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
@@ -2330,13 +2349,13 @@
       <formula1>"Drag Text, Single Choice, True False, Fill in the Blanks, Drag and Drop, Free Text, Multiple Choice, Text"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Duration" prompt="Enter how long the question should be shown (default: 2s). It also disappears when the learner continues." sqref="B5:B59" xr:uid="{B4B7A6DE-33FA-7D44-B4EF-79D24C1C0D3D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shown at" prompt="Enter a time code for the time at which the question should be shown._x000a__x000a_Valid format:_x000a_m:ss (0:19)_x000a_m:ss.ms (0:19.500)_x000a_h:m:ss (1:05:10)_x000a_h:m:ss.ms (1:05:10.250)_x000a_" sqref="A6:A61 A5 B3" xr:uid="{DEE93C59-27C6-E74A-9742-195A26BAC2E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shown at" prompt="Enter a time code for the time at which the question should be shown._x000a__x000a_Valid format:_x000a_m:ss (0:19)_x000a_m:ss.ms (0:19.500)_x000a_h:m:ss (1:05:10)_x000a_h:m:ss.ms (1:05:10.250)_x000a_" sqref="A5:A61 B3" xr:uid="{DEE93C59-27C6-E74A-9742-195A26BAC2E1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Action correct" prompt="fully optional_x000a__x000a_Enter a text that is shown when the learner's answer was correct. You can also optionally jump to a timecode._x000a__x000a_Allowed format:_x000a_You did great!_x000a_You did great (0:19)_x000a_You did great (0:19.500)_x000a_You did great (all other timecodes of &quot;shown at&quot;)_x000a__x000a_" sqref="E5:E59" xr:uid="{2025272D-911C-6842-A975-A0067A5AE3AC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="fully optional_x000a__x000a_Enter a text that is shown when the learner's answer was incorrect. You can also optionally jump to a timecode._x000a__x000a_Allowed format:_x000a_Try again!_x000a_Watch this part of the video again! (0:19)_x000a_Watch this part of the video again! (0:19.500)_x000a_Watch thi" sqref="F5:F59" xr:uid="{7061524B-886A-D845-A9A2-9B9E58DE21AE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer options" prompt="Single Choice Set: the first option is the correct one (order randomized for learner)_x000a_Multiple Choice: put * (asteriks) in front of correct option_x000a_Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False:" sqref="V59" xr:uid="{427EA3ED-A53B-4740-BC3D-7FB637C3E431}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer options" prompt="Single Choice Set: first option is the correct one_x000a_Multiple Choice: put * (asteriks) in front of correct option_x000a_Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)" sqref="U59 J59:T59 I59" xr:uid="{1DF60308-4C5E-654F-BAF0-4A0F2B61BE22}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task / Question" prompt="Free Text: placeholder_x000a_Drag Text / Fill in the Blanks: Put * (asteriks) signs around the blanks or dragable text. (i.e. *Beijing* is the capital of China.)_x000a_Single Choice: options (1 / line, 1st = correct)_x000a_Multiple Choice: options 1 / line, * = correct" sqref="H59 H5:H58" xr:uid="{66AD9054-C02E-034F-8E50-F16FC1758BF3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Enter the title of the question. It will not be directly shown to the learner but is only used in the overview at the end." sqref="D5:D12 D15:D59" xr:uid="{696E855F-9008-DA40-9EB6-825EF86D9F65}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Answer options" prompt="Single Choice Set: first option is the correct one_x000a_Multiple Choice: put * (asteriks) in front of correct option_x000a_Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)" sqref="I59:U59" xr:uid="{1DF60308-4C5E-654F-BAF0-4A0F2B61BE22}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task / Question" prompt="Free Text: placeholder_x000a_Drag Text / Fill in the Blanks: Put * (asteriks) signs around the blanks or dragable text. (i.e. *Beijing* is the capital of China.)_x000a_Single Choice: options (1 / line, 1st = correct)_x000a_Multiple Choice: options 1 / line, * = correct" sqref="H5:H59" xr:uid="{66AD9054-C02E-034F-8E50-F16FC1758BF3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Title" prompt="Enter the title of the question. It will not be directly shown to the learner but is only used in the overview at the end." sqref="D15:D59 D5:D12" xr:uid="{696E855F-9008-DA40-9EB6-825EF86D9F65}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: Use this format:_x000a_          drop zone text_x000a_          -----_x000a_          dragable text_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)" sqref="AV5:BE58" xr:uid="{2855567F-191F-494B-A78A-AAC39C8BF9FF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Drag and Drop: see documentation_x000a_True False: &quot;true&quot; or &quot;false&quot; (without the &quot;)_x000a_Single Choice: iterate between question and answer list" sqref="J5:AU58" xr:uid="{07271C29-52DD-483E-BC1F-42CCB99A467D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task description" prompt="Enter what the learner should do. This is displayed at the very top of the task._x000a__x000a_Text / Blanks / Drag Text:_x000a_create links like this: [link text](url)" sqref="G5:G13 G15:G59 H14" xr:uid="{4677DC35-5F9F-154A-9135-0382A0EF1CF7}"/>
